--- a/data/xlsx/HubInvestment.xlsx
+++ b/data/xlsx/HubInvestment.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -770,6 +770,43 @@
       <c r="I8" t="inlineStr">
         <is>
           <t>グラドロン</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NID_神竜の章</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MID_PLACE_God</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>神竜の章共通</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>神竜の章共通</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DLC共通</t>
         </is>
       </c>
     </row>

--- a/data/xlsx/HubInvestment.xlsx
+++ b/data/xlsx/HubInvestment.xlsx
@@ -782,7 +782,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MID_PLACE_God</t>
+          <t>隶属国家不详</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
